--- a/ONCHO/Impact Assessments/Cote d'Ivoire/civ_oncho_ia_202309_2_participant.xlsx
+++ b/ONCHO/Impact Assessments/Cote d'Ivoire/civ_oncho_ia_202309_2_participant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Cote d'Ivoire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062ABCDB-3B73-4877-BD38-916B36BA68F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE13FF6-68A9-4809-B927-5AF564594785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="109">
   <si>
     <t>type</t>
   </si>
@@ -240,18 +240,9 @@
     <t>2. Sélectionner une région</t>
   </si>
   <si>
-    <t>p_health_facility</t>
-  </si>
-  <si>
     <t>p_barcodeid</t>
   </si>
   <si>
-    <t>6. Cette personne consent-elle à participer à l'étude ?</t>
-  </si>
-  <si>
-    <t>7. Code du participant</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
@@ -294,73 +285,70 @@
     <t>p_profession_parent</t>
   </si>
   <si>
-    <t>8. Nom du parent</t>
-  </si>
-  <si>
-    <t>9. Profession du parrent</t>
-  </si>
-  <si>
-    <t>10. Quel est le sexe de cette personne ?</t>
-  </si>
-  <si>
-    <t>11. Quel est l'âge de cette personne ?</t>
-  </si>
-  <si>
-    <t>12. Etes-vous né dans ce village</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13. Avez-vous déjà vécu en dehors de ce village durant ses 9 dernières années </t>
-  </si>
-  <si>
-    <t xml:space="preserve">14. Avez-vous déjà été piqué par les simulies </t>
-  </si>
-  <si>
-    <t xml:space="preserve">15. As-tu déjà pris les comprimés d’Ivermectine </t>
-  </si>
-  <si>
-    <t>16. Combien de comprimes as-tu déjà pris</t>
-  </si>
-  <si>
-    <t>17. Notes supplémentaires facultatives</t>
-  </si>
-  <si>
-    <t>(Sept 2023) ONCHO Pre Stop - 2. Participants</t>
-  </si>
-  <si>
-    <t>civ_oncho_ia_202309_2_participant</t>
-  </si>
-  <si>
     <t>3. Sélectionner un district</t>
   </si>
   <si>
-    <t>4. Séléctionner un aire sanitaire</t>
-  </si>
-  <si>
-    <t>5. Sélectionner un site</t>
-  </si>
-  <si>
-    <t>Sélectionner un code de site</t>
-  </si>
-  <si>
-    <t>Entrer le site de remplassement</t>
-  </si>
-  <si>
-    <t>Sélectionner le code du site remplacé</t>
-  </si>
-  <si>
     <t>p_site_id</t>
   </si>
   <si>
-    <t>p_site2</t>
-  </si>
-  <si>
-    <t>p_site_id2</t>
-  </si>
-  <si>
-    <t>${p_site} = 'Autre'</t>
-  </si>
-  <si>
-    <t>${p_site} != 'Autre'</t>
+    <t>p_village_1ere_ligne</t>
+  </si>
+  <si>
+    <t>4. Sélectionner le code du district</t>
+  </si>
+  <si>
+    <t>5. Sélectionner un village de 1ère ligne le plus proche</t>
+  </si>
+  <si>
+    <t>6. Sélectionner le site d'enquête</t>
+  </si>
+  <si>
+    <t>7. Sélectionner un code du site</t>
+  </si>
+  <si>
+    <t>p_district_id</t>
+  </si>
+  <si>
+    <t>8. Cette personne consent-elle à participer à l'étude ?</t>
+  </si>
+  <si>
+    <t>9. Code du participant</t>
+  </si>
+  <si>
+    <t>10. Nom du parent</t>
+  </si>
+  <si>
+    <t>11. Profession du parrent</t>
+  </si>
+  <si>
+    <t>12. Quel est le sexe de cette personne ?</t>
+  </si>
+  <si>
+    <t>13. Quel est l'âge de cette personne ?</t>
+  </si>
+  <si>
+    <t>14. Etes-vous né dans ce village</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15. Avez-vous déjà vécu en dehors de ce village durant ses 9 dernières années </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16. Avez-vous déjà été piqué par les simulies </t>
+  </si>
+  <si>
+    <t xml:space="preserve">17. As-tu déjà pris les comprimés d’Ivermectine </t>
+  </si>
+  <si>
+    <t>18. Combien de comprimes as-tu déjà pris</t>
+  </si>
+  <si>
+    <t>19. Notes supplémentaires facultatives</t>
+  </si>
+  <si>
+    <t>(Sept 2023) ONCHO Pre Stop - 2. Participants V2</t>
+  </si>
+  <si>
+    <t>civ_oncho_ia_202309_2_participant_v2</t>
   </si>
 </sst>
 </file>
@@ -480,7 +468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -552,12 +540,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -842,19 +824,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12:XFD12"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="23.75" style="12" customWidth="1"/>
-    <col min="2" max="2" width="17.875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="19.625" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.875" style="12" customWidth="1"/>
     <col min="4" max="4" width="37.875" style="12" customWidth="1"/>
     <col min="5" max="5" width="12.625" style="12" customWidth="1"/>
@@ -968,7 +950,7 @@
         <v>62</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -981,30 +963,36 @@
       </c>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:14" s="7" customFormat="1">
+    <row r="5" spans="1:14" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>103</v>
+      <c r="B5" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
       <c r="J5" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" s="7" customFormat="1">
+      <c r="L5" s="8"/>
+    </row>
+    <row r="6" spans="1:14" s="7" customFormat="1" ht="31.5">
       <c r="A6" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D6" s="8"/>
       <c r="J6" s="7" t="s">
@@ -1016,15 +1004,12 @@
         <v>23</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D7" s="8"/>
-      <c r="H7" s="7" t="s">
-        <v>112</v>
-      </c>
       <c r="J7" s="7" t="s">
         <v>19</v>
       </c>
@@ -1035,153 +1020,166 @@
         <v>23</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="D8" s="8"/>
-      <c r="H8" s="7" t="s">
-        <v>111</v>
-      </c>
       <c r="J8" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="7" customFormat="1" ht="31.5">
+    <row r="9" spans="1:14" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>107</v>
+        <v>21</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="D9" s="8"/>
-      <c r="H9" s="7" t="s">
-        <v>111</v>
-      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
       <c r="J9" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" s="7" customFormat="1">
-      <c r="A10" s="27"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-    </row>
-    <row r="11" spans="1:14" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="7" t="s">
+      <c r="L9" s="10"/>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" spans="1:14" s="3" customFormat="1">
+      <c r="A10" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" s="15"/>
+      <c r="J10" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="10"/>
-      <c r="M11" s="8"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="19"/>
+    </row>
+    <row r="11" spans="1:14" s="3" customFormat="1">
+      <c r="A11" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="22"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="19"/>
     </row>
     <row r="12" spans="1:14" s="3" customFormat="1">
-      <c r="A12" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
+      <c r="A12" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="25"/>
       <c r="H12" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="14" t="s">
+      <c r="I12" s="22"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="19"/>
+    </row>
+    <row r="13" spans="1:14" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="19"/>
-    </row>
-    <row r="13" spans="1:14" s="3" customFormat="1">
-      <c r="A13" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="15" t="s">
+      <c r="L13" s="10"/>
+      <c r="M13" s="8"/>
+    </row>
+    <row r="14" spans="1:14" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="I13" s="22"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="19"/>
-    </row>
-    <row r="14" spans="1:14" s="3" customFormat="1">
-      <c r="A14" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="I14" s="22"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="19"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" s="10"/>
+      <c r="M14" s="8"/>
     </row>
     <row r="15" spans="1:14" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A15" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1199,13 +1197,13 @@
     </row>
     <row r="16" spans="1:14" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1226,10 +1224,10 @@
         <v>21</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1250,10 +1248,10 @@
         <v>21</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1271,13 +1269,13 @@
     </row>
     <row r="19" spans="1:13" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A19" s="7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1293,81 +1291,65 @@
       <c r="L19" s="10"/>
       <c r="M19" s="8"/>
     </row>
-    <row r="20" spans="1:13" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="I20" s="8"/>
-      <c r="J20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L20" s="10"/>
-      <c r="M20" s="8"/>
-    </row>
-    <row r="21" spans="1:13" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="I21" s="8"/>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="10"/>
-      <c r="M21" s="8"/>
-    </row>
-    <row r="22" spans="1:13" s="7" customFormat="1" ht="31.5">
+    <row r="20" spans="1:13" s="7" customFormat="1" ht="31.5">
+      <c r="A20" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+    </row>
+    <row r="21" spans="1:13" s="7" customFormat="1">
+      <c r="A21" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+    </row>
+    <row r="22" spans="1:13" s="7" customFormat="1">
       <c r="A22" s="9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>99</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="C22" s="11"/>
       <c r="D22" s="11"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="13"/>
-      <c r="H22" s="8"/>
+      <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="10"/>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
     </row>
     <row r="23" spans="1:13" s="7" customFormat="1">
-      <c r="A23" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>69</v>
-      </c>
+      <c r="A23" s="9"/>
+      <c r="B23" s="10"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
       <c r="E23" s="9"/>
@@ -1380,51 +1362,19 @@
       <c r="L23" s="9"/>
     </row>
     <row r="24" spans="1:13" s="7" customFormat="1">
-      <c r="A24" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:13" s="7" customFormat="1">
-      <c r="A25" s="9"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:13" s="7" customFormat="1">
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-    </row>
-    <row r="27" spans="1:13" s="7" customFormat="1">
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-    </row>
-    <row r="28" spans="1:13" s="7" customFormat="1">
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1713,57 +1663,57 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1852,14 +1802,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="52.25" customWidth="1"/>
-    <col min="2" max="2" width="41.5" customWidth="1"/>
+    <col min="1" max="1" width="52.25" style="12" customWidth="1"/>
+    <col min="2" max="2" width="41.5" style="12" customWidth="1"/>
+    <col min="3" max="16384" width="11" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1878,15 +1829,15 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="12" t="s">
         <v>19</v>
       </c>
     </row>

--- a/ONCHO/Impact Assessments/Cote d'Ivoire/civ_oncho_ia_202309_2_participant.xlsx
+++ b/ONCHO/Impact Assessments/Cote d'Ivoire/civ_oncho_ia_202309_2_participant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Cote d'Ivoire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE13FF6-68A9-4809-B927-5AF564594785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C91D0EE-A168-4DB2-9D96-424CFF88E6CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="113">
   <si>
     <t>type</t>
   </si>
@@ -60,9 +60,6 @@
     <t>choice_filter</t>
   </si>
   <si>
-    <t>body::accuracyThreshold</t>
-  </si>
-  <si>
     <t>readonly</t>
   </si>
   <si>
@@ -240,9 +237,6 @@
     <t>2. Sélectionner une région</t>
   </si>
   <si>
-    <t>p_barcodeid</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
@@ -312,9 +306,6 @@
     <t>8. Cette personne consent-elle à participer à l'étude ?</t>
   </si>
   <si>
-    <t>9. Code du participant</t>
-  </si>
-  <si>
     <t>10. Nom du parent</t>
   </si>
   <si>
@@ -345,10 +336,31 @@
     <t>19. Notes supplémentaires facultatives</t>
   </si>
   <si>
-    <t>(Sept 2023) ONCHO Pre Stop - 2. Participants V2</t>
-  </si>
-  <si>
-    <t>civ_oncho_ia_202309_2_participant_v2</t>
+    <t>civ_oncho_ia_202309_2_participant_v2_1</t>
+  </si>
+  <si>
+    <t>(Sept 2023) ONCHO Pre Stop - 2. Participants V2.1</t>
+  </si>
+  <si>
+    <t>p_numero</t>
+  </si>
+  <si>
+    <t>9.a. Entrer le numéro du participant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regex(.,'^(0[1-9][0-9]|100|0[0-9][1-9])$') </t>
+  </si>
+  <si>
+    <t>Le code doit être un nombre à trois chiffres entre 001 et 100</t>
+  </si>
+  <si>
+    <t>concat('0_', ${p_district_id}, '_', ${p_site_id}, '_', ${p_numero})</t>
+  </si>
+  <si>
+    <t>p_code_id</t>
+  </si>
+  <si>
+    <t>9.b. Code du participant</t>
   </si>
 </sst>
 </file>
@@ -514,15 +526,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -540,6 +543,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -824,13 +836,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomRight" activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -840,7 +852,7 @@
     <col min="3" max="3" width="29.875" style="12" customWidth="1"/>
     <col min="4" max="4" width="37.875" style="12" customWidth="1"/>
     <col min="5" max="5" width="12.625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="16.875" style="12" customWidth="1"/>
+    <col min="6" max="6" width="35.875" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.5" style="12" customWidth="1"/>
     <col min="8" max="8" width="20.375" style="12" customWidth="1"/>
     <col min="9" max="9" width="12.625" style="12" customWidth="1"/>
@@ -850,7 +862,7 @@
     <col min="13" max="16384" width="11" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" ht="18.75">
+    <row r="1" spans="1:13" s="7" customFormat="1" ht="18.75">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -890,47 +902,44 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:13" s="7" customFormat="1" ht="31.5">
+      <c r="A2" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="31.5">
-      <c r="A2" s="9" t="s">
+      <c r="B2" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="11" t="s">
         <v>15</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>16</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>17</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>18</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
       <c r="J2" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
     </row>
-    <row r="3" spans="1:14" s="7" customFormat="1">
+    <row r="3" spans="1:13" s="7" customFormat="1">
       <c r="A3" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -938,19 +947,19 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L3" s="8"/>
     </row>
-    <row r="4" spans="1:14" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="4" spans="1:13" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -959,19 +968,19 @@
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:14" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="5" spans="1:13" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -980,65 +989,65 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L5" s="8"/>
     </row>
-    <row r="6" spans="1:14" s="7" customFormat="1" ht="31.5">
+    <row r="6" spans="1:13" s="7" customFormat="1" ht="31.5">
       <c r="A6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>91</v>
       </c>
       <c r="D6" s="8"/>
       <c r="J6" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="7" customFormat="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="7" customFormat="1">
       <c r="A7" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D7" s="8"/>
       <c r="J7" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L7" s="10"/>
     </row>
-    <row r="8" spans="1:14" s="7" customFormat="1">
+    <row r="8" spans="1:13" s="7" customFormat="1">
       <c r="A8" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D8" s="8"/>
       <c r="J8" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="7" customFormat="1" ht="15.75" customHeight="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -1047,294 +1056,294 @@
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L9" s="10"/>
-      <c r="M9" s="8"/>
-    </row>
-    <row r="10" spans="1:14" s="3" customFormat="1">
-      <c r="A10" s="14" t="s">
-        <v>20</v>
+    </row>
+    <row r="10" spans="1:13" s="3" customFormat="1" ht="31.5">
+      <c r="A10" s="24" t="s">
+        <v>22</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="14"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18"/>
+      <c r="F10" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>109</v>
+      </c>
       <c r="H10" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I10" s="15"/>
       <c r="J10" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
-      <c r="M10" s="19"/>
-    </row>
-    <row r="11" spans="1:14" s="3" customFormat="1">
-      <c r="A11" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="I11" s="22"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="19"/>
-    </row>
-    <row r="12" spans="1:14" s="3" customFormat="1">
-      <c r="A12" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="25"/>
+    </row>
+    <row r="11" spans="1:13" s="3" customFormat="1">
+      <c r="A11" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="3" customFormat="1">
+      <c r="A12" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="22"/>
       <c r="H12" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="I12" s="22"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="19"/>
-    </row>
-    <row r="13" spans="1:14" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" s="19"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+    </row>
+    <row r="13" spans="1:13" s="3" customFormat="1">
+      <c r="A13" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L13" s="10"/>
-      <c r="M13" s="8"/>
-    </row>
-    <row r="14" spans="1:14" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="I13" s="19"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+    </row>
+    <row r="14" spans="1:13" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L14" s="10"/>
-      <c r="M14" s="8"/>
-    </row>
-    <row r="15" spans="1:14" s="7" customFormat="1" ht="15.75" customHeight="1">
+    </row>
+    <row r="15" spans="1:13" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A15" s="7" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L15" s="10"/>
-      <c r="M15" s="8"/>
-    </row>
-    <row r="16" spans="1:14" s="7" customFormat="1" ht="15.75" customHeight="1">
+    </row>
+    <row r="16" spans="1:13" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L16" s="10"/>
-      <c r="M16" s="8"/>
-    </row>
-    <row r="17" spans="1:13" s="7" customFormat="1" ht="15.75" customHeight="1">
+    </row>
+    <row r="17" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L17" s="10"/>
-      <c r="M17" s="8"/>
-    </row>
-    <row r="18" spans="1:13" s="7" customFormat="1" ht="15.75" customHeight="1">
+    </row>
+    <row r="18" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L18" s="10"/>
-      <c r="M18" s="8"/>
-    </row>
-    <row r="19" spans="1:13" s="7" customFormat="1" ht="15.75" customHeight="1">
+    </row>
+    <row r="19" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A19" s="7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="10"/>
+    </row>
+    <row r="20" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I20" s="8"/>
+      <c r="J20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="10"/>
+    </row>
+    <row r="21" spans="1:12" s="7" customFormat="1" ht="31.5">
+      <c r="A21" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L19" s="10"/>
-      <c r="M19" s="8"/>
-    </row>
-    <row r="20" spans="1:13" s="7" customFormat="1" ht="31.5">
-      <c r="A20" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-    </row>
-    <row r="21" spans="1:13" s="7" customFormat="1">
-      <c r="A21" s="9" t="s">
-        <v>24</v>
-      </c>
       <c r="B21" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="11"/>
+        <v>67</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>103</v>
+      </c>
       <c r="D21" s="11"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="13"/>
-      <c r="H21" s="9"/>
+      <c r="H21" s="8"/>
       <c r="I21" s="9"/>
       <c r="J21" s="10"/>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
     </row>
-    <row r="22" spans="1:13" s="7" customFormat="1">
+    <row r="22" spans="1:12" s="7" customFormat="1">
       <c r="A22" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -1347,9 +1356,13 @@
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
     </row>
-    <row r="23" spans="1:13" s="7" customFormat="1">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
+    <row r="23" spans="1:12" s="7" customFormat="1">
+      <c r="A23" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>69</v>
+      </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
       <c r="E23" s="9"/>
@@ -1361,20 +1374,34 @@
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
     </row>
-    <row r="24" spans="1:13" s="7" customFormat="1">
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-    </row>
-    <row r="25" spans="1:13" s="7" customFormat="1">
+    <row r="24" spans="1:12" s="7" customFormat="1">
+      <c r="A24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+    </row>
+    <row r="25" spans="1:12" s="7" customFormat="1">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
     </row>
-    <row r="26" spans="1:13" s="7" customFormat="1">
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
+    <row r="26" spans="1:12" s="7" customFormat="1">
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" spans="1:12" s="7" customFormat="1">
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1401,7 +1428,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -1410,310 +1437,310 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>31</v>
-      </c>
       <c r="C2" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>34</v>
-      </c>
       <c r="C4" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>37</v>
-      </c>
       <c r="C8" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>39</v>
+      <c r="C9" s="17" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>40</v>
+        <v>37</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>41</v>
+        <v>37</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>43</v>
+      <c r="C12" s="17" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>44</v>
+        <v>41</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>45</v>
+        <v>41</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>46</v>
+        <v>41</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>48</v>
+        <v>41</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>49</v>
+        <v>41</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>50</v>
+        <v>41</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>51</v>
+        <v>41</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>52</v>
+        <v>41</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>53</v>
+        <v>41</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>54</v>
+        <v>41</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>73</v>
+        <v>76</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B27" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="20" t="s">
-        <v>76</v>
+      <c r="B27" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1802,8 +1829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1815,30 +1842,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/ONCHO/Impact Assessments/Cote d'Ivoire/civ_oncho_ia_202309_2_participant.xlsx
+++ b/ONCHO/Impact Assessments/Cote d'Ivoire/civ_oncho_ia_202309_2_participant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Cote d'Ivoire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C91D0EE-A168-4DB2-9D96-424CFF88E6CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01FAA90-4A87-4DC1-8AB4-5A3F446F2893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="113">
   <si>
     <t>type</t>
   </si>
@@ -336,12 +336,6 @@
     <t>19. Notes supplémentaires facultatives</t>
   </si>
   <si>
-    <t>civ_oncho_ia_202309_2_participant_v2_1</t>
-  </si>
-  <si>
-    <t>(Sept 2023) ONCHO Pre Stop - 2. Participants V2.1</t>
-  </si>
-  <si>
     <t>p_numero</t>
   </si>
   <si>
@@ -361,6 +355,12 @@
   </si>
   <si>
     <t>9.b. Code du participant</t>
+  </si>
+  <si>
+    <t>(Sept 2023) ONCHO Pre Stop - 2. Participants V3</t>
+  </si>
+  <si>
+    <t>civ_oncho_ia_202309_2_participant_v3</t>
   </si>
 </sst>
 </file>
@@ -842,7 +842,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M12" sqref="M12"/>
+      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1004,9 +1004,6 @@
         <v>89</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="J6" s="7" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="7" spans="1:13" s="7" customFormat="1">
       <c r="A7" s="7" t="s">
@@ -1065,18 +1062,18 @@
         <v>22</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="14"/>
       <c r="F10" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H10" s="15" t="s">
         <v>65</v>
@@ -1093,10 +1090,10 @@
         <v>22</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="18"/>
@@ -1104,7 +1101,7 @@
       <c r="G11" s="26"/>
       <c r="H11" s="15"/>
       <c r="I11" s="21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
@@ -1830,7 +1827,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1856,10 +1853,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>58</v>

--- a/ONCHO/Impact Assessments/Cote d'Ivoire/civ_oncho_ia_202309_2_participant.xlsx
+++ b/ONCHO/Impact Assessments/Cote d'Ivoire/civ_oncho_ia_202309_2_participant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Cote d'Ivoire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01FAA90-4A87-4DC1-8AB4-5A3F446F2893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E686E4-DD4D-4D9B-A1FB-C11498FFD1FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="111">
   <si>
     <t>type</t>
   </si>
@@ -285,15 +285,9 @@
     <t>p_site_id</t>
   </si>
   <si>
-    <t>p_village_1ere_ligne</t>
-  </si>
-  <si>
     <t>4. Sélectionner le code du district</t>
   </si>
   <si>
-    <t>5. Sélectionner un village de 1ère ligne le plus proche</t>
-  </si>
-  <si>
     <t>6. Sélectionner le site d'enquête</t>
   </si>
   <si>
@@ -357,10 +351,10 @@
     <t>9.b. Code du participant</t>
   </si>
   <si>
-    <t>(Sept 2023) ONCHO Pre Stop - 2. Participants V3</t>
-  </si>
-  <si>
-    <t>civ_oncho_ia_202309_2_participant_v3</t>
+    <t>(Sept 2023) ONCHO Pre Stop - 2. Participants V3.1</t>
+  </si>
+  <si>
+    <t>civ_oncho_ia_202309_2_participant_v3_1</t>
   </si>
 </sst>
 </file>
@@ -836,13 +830,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -977,10 +971,10 @@
         <v>22</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -993,132 +987,142 @@
       </c>
       <c r="L5" s="8"/>
     </row>
-    <row r="6" spans="1:13" s="7" customFormat="1" ht="31.5">
+    <row r="6" spans="1:13" s="7" customFormat="1">
       <c r="A6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6" s="8"/>
+      <c r="J6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="10"/>
     </row>
     <row r="7" spans="1:13" s="7" customFormat="1">
       <c r="A7" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D7" s="8"/>
       <c r="J7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="10"/>
-    </row>
-    <row r="8" spans="1:13" s="7" customFormat="1">
+    </row>
+    <row r="8" spans="1:13" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>91</v>
       </c>
       <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
       <c r="J8" s="7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="7" t="s">
+      <c r="L8" s="10"/>
+    </row>
+    <row r="9" spans="1:13" s="3" customFormat="1" ht="31.5">
+      <c r="A9" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="10"/>
-    </row>
-    <row r="10" spans="1:13" s="3" customFormat="1" ht="31.5">
-      <c r="A10" s="24" t="s">
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+    </row>
+    <row r="10" spans="1:13" s="3" customFormat="1">
+      <c r="A10" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="9" t="s">
+      <c r="B10" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="G10" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
     </row>
     <row r="11" spans="1:13" s="3" customFormat="1">
       <c r="A11" s="23" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="18"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="21" t="s">
-        <v>108</v>
-      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" s="19"/>
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
-      <c r="M11" s="7" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="12" spans="1:13" s="3" customFormat="1">
       <c r="A12" s="23" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="18"/>
@@ -1132,37 +1136,38 @@
       <c r="K12" s="18"/>
       <c r="L12" s="18"/>
     </row>
-    <row r="13" spans="1:13" s="3" customFormat="1">
-      <c r="A13" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="15" t="s">
+    <row r="13" spans="1:13" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="I13" s="19"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="10"/>
     </row>
     <row r="14" spans="1:13" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1179,13 +1184,13 @@
     </row>
     <row r="15" spans="1:13" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A15" s="7" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1205,10 +1210,10 @@
         <v>20</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1228,10 +1233,10 @@
         <v>20</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1251,10 +1256,10 @@
         <v>20</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1271,13 +1276,13 @@
     </row>
     <row r="19" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A19" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1292,44 +1297,39 @@
       </c>
       <c r="L19" s="10"/>
     </row>
-    <row r="20" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A20" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="I20" s="8"/>
-      <c r="J20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L20" s="10"/>
-    </row>
-    <row r="21" spans="1:12" s="7" customFormat="1" ht="31.5">
+    <row r="20" spans="1:12" s="7" customFormat="1" ht="31.5">
+      <c r="A20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+    </row>
+    <row r="21" spans="1:12" s="7" customFormat="1">
       <c r="A21" s="9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>103</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C21" s="11"/>
       <c r="D21" s="11"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="13"/>
-      <c r="H21" s="8"/>
+      <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="10"/>
       <c r="K21" s="9"/>
@@ -1337,10 +1337,10 @@
     </row>
     <row r="22" spans="1:12" s="7" customFormat="1">
       <c r="A22" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -1354,12 +1354,8 @@
       <c r="L22" s="9"/>
     </row>
     <row r="23" spans="1:12" s="7" customFormat="1">
-      <c r="A23" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>69</v>
-      </c>
+      <c r="A23" s="9"/>
+      <c r="B23" s="10"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
       <c r="E23" s="9"/>
@@ -1372,18 +1368,9 @@
       <c r="L23" s="9"/>
     </row>
     <row r="24" spans="1:12" s="7" customFormat="1">
-      <c r="A24" s="9"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:12" s="7" customFormat="1">
       <c r="B25" s="8"/>
@@ -1391,14 +1378,9 @@
       <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:12" s="7" customFormat="1">
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-    </row>
-    <row r="27" spans="1:12" s="7" customFormat="1">
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1826,8 +1808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1853,10 +1835,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>58</v>

--- a/ONCHO/Impact Assessments/Cote d'Ivoire/civ_oncho_ia_202309_2_participant.xlsx
+++ b/ONCHO/Impact Assessments/Cote d'Ivoire/civ_oncho_ia_202309_2_participant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Cote d'Ivoire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E686E4-DD4D-4D9B-A1FB-C11498FFD1FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC83F5A0-8595-4E59-AAE3-4E2ECCDB7CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -306,12 +306,6 @@
     <t>11. Profession du parrent</t>
   </si>
   <si>
-    <t>12. Quel est le sexe de cette personne ?</t>
-  </si>
-  <si>
-    <t>13. Quel est l'âge de cette personne ?</t>
-  </si>
-  <si>
     <t>14. Etes-vous né dans ce village</t>
   </si>
   <si>
@@ -336,12 +330,6 @@
     <t>9.a. Entrer le numéro du participant</t>
   </si>
   <si>
-    <t xml:space="preserve">regex(.,'^(0[1-9][0-9]|100|0[0-9][1-9])$') </t>
-  </si>
-  <si>
-    <t>Le code doit être un nombre à trois chiffres entre 001 et 100</t>
-  </si>
-  <si>
     <t>concat('0_', ${p_district_id}, '_', ${p_site_id}, '_', ${p_numero})</t>
   </si>
   <si>
@@ -351,10 +339,22 @@
     <t>9.b. Code du participant</t>
   </si>
   <si>
-    <t>(Sept 2023) ONCHO Pre Stop - 2. Participants V3.1</t>
-  </si>
-  <si>
-    <t>civ_oncho_ia_202309_2_participant_v3_1</t>
+    <t>(Sept 2023) ONCHO Pre Stop - 2. Participants V4</t>
+  </si>
+  <si>
+    <t>civ_oncho_ia_202309_2_participant_v4</t>
+  </si>
+  <si>
+    <t>Le code doit être un nombre à trois chiffres entre 001 et 105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regex(.,'^(0[0-9][1-9]|0[1-9][0-9]|10[0-5])$') </t>
+  </si>
+  <si>
+    <t>12. Quel est le sexe de cet enfant ?</t>
+  </si>
+  <si>
+    <t>13. Quel est l'âge de cet enfant ?</t>
   </si>
 </sst>
 </file>
@@ -832,11 +832,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6:XFD6"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -846,7 +846,7 @@
     <col min="3" max="3" width="29.875" style="12" customWidth="1"/>
     <col min="4" max="4" width="37.875" style="12" customWidth="1"/>
     <col min="5" max="5" width="12.625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="35.875" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.375" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.5" style="12" customWidth="1"/>
     <col min="8" max="8" width="20.375" style="12" customWidth="1"/>
     <col min="9" max="9" width="12.625" style="12" customWidth="1"/>
@@ -1044,18 +1044,18 @@
         <v>22</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="14"/>
       <c r="F9" s="9" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H9" s="15" t="s">
         <v>65</v>
@@ -1072,10 +1072,10 @@
         <v>22</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="18"/>
@@ -1083,7 +1083,7 @@
       <c r="G10" s="26"/>
       <c r="H10" s="15"/>
       <c r="I10" s="21" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
@@ -1144,7 +1144,7 @@
         <v>64</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1167,7 +1167,7 @@
         <v>66</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1190,7 +1190,7 @@
         <v>78</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1213,7 +1213,7 @@
         <v>79</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1236,7 +1236,7 @@
         <v>80</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1259,7 +1259,7 @@
         <v>81</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1282,7 +1282,7 @@
         <v>82</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1305,7 +1305,7 @@
         <v>67</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="9"/>
@@ -1808,8 +1808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1835,10 +1835,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>58</v>
